--- a/static/input_excel/email_pw.xlsx
+++ b/static/input_excel/email_pw.xlsx
@@ -1,50 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/papu/Library/Mobile Documents/com~apple~CloudDocs/Python/render/REINS_cloud/static/input_excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26439DA-B8A4-2E45-8818-E5FF68DF2C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1720" yWindow="500" windowWidth="19040" windowHeight="16300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="19040" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>送信元gmailアドレス</t>
+  </si>
+  <si>
+    <t>アプリパスワード</t>
+  </si>
+  <si>
+    <t>送信先メールアドレス</t>
+  </si>
+  <si>
+    <t>debug01app@gmail.com</t>
+  </si>
+  <si>
+    <t>wlwjrwxzcmtkpkyj</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,95 +85,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,12 +414,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -461,72 +423,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col width="22" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="30.140625" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="24.5703125" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>送信元gmailアドレス</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>アプリパスワード</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>送信先メールアドレス</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>debug01app@gmail.com</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>wlwjrwxzcmtkpkyj</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>enter.solo.sci.0or1@gmail.com</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>papu9690mmm@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>yuki0606papkon9690@icloud.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0" t="n"/>
-    </row>
-    <row r="6"/>
+      <c r="C2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/static/input_excel/email_pw.xlsx
+++ b/static/input_excel/email_pw.xlsx
@@ -2,25 +2,41 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/papu/Library/Mobile Documents/com~apple~CloudDocs/Python/render/REINS_cloud/static/input_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26439DA-B8A4-2E45-8818-E5FF68DF2C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66202CE-03B5-9648-834C-F7F79CEAFAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="19040" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="1000" windowWidth="17520" windowHeight="15840" xr2:uid="{5858B8DD-2E53-2644-B954-D4B2F5999C66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>送信元gmailアドレス</t>
   </si>
@@ -31,10 +47,13 @@
     <t>送信先メールアドレス</t>
   </si>
   <si>
+    <t>wlwjrwxzcmtkpkyj</t>
+  </si>
+  <si>
     <t>debug01app@gmail.com</t>
   </si>
   <si>
-    <t>wlwjrwxzcmtkpkyj</t>
+    <t>pppppppp@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -58,11 +77,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -84,25 +102,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -129,39 +142,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,7 +226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -324,13 +337,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -339,6 +345,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -403,74 +416,75 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53367C0C-CFA3-E64E-BC0E-1CF163C5A7C0}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7"/>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/static/input_excel/email_pw.xlsx
+++ b/static/input_excel/email_pw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/papu/Library/Mobile Documents/com~apple~CloudDocs/Python/render/REINS_cloud/static/input_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66202CE-03B5-9648-834C-F7F79CEAFAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B1D05B-CCFF-9641-9BC1-ECFCC1A30B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="17520" windowHeight="15840" xr2:uid="{5858B8DD-2E53-2644-B954-D4B2F5999C66}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>送信元gmailアドレス</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>送信先メールアドレス</t>
-  </si>
-  <si>
-    <t>wlwjrwxzcmtkpkyj</t>
-  </si>
-  <si>
-    <t>debug01app@gmail.com</t>
-  </si>
-  <si>
-    <t>pppppppp@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -448,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53367C0C-CFA3-E64E-BC0E-1CF163C5A7C0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -472,17 +463,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/input_excel/email_pw.xlsx
+++ b/static/input_excel/email_pw.xlsx
@@ -1,84 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/papu/Library/Mobile Documents/com~apple~CloudDocs/Python/render/REINS_cloud/static/input_excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B1D05B-CCFF-9641-9BC1-ECFCC1A30B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1000" windowWidth="17520" windowHeight="15840" xr2:uid="{5858B8DD-2E53-2644-B954-D4B2F5999C66}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="640" yWindow="1000" windowWidth="17520" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>送信元gmailアドレス</t>
-  </si>
-  <si>
-    <t>アプリパスワード</t>
-  </si>
-  <si>
-    <t>送信先メールアドレス</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,31 +59,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -438,33 +463,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53367C0C-CFA3-E64E-BC0E-1CF163C5A7C0}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>送信元gmailアドレス</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>アプリパスワード</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>送信先メールアドレス</t>
+        </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>debug01app@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>wlwjrwxzcmtkpkyj</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>enter.solo.sci.0or1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="0" t="n"/>
+    </row>
+    <row r="4"/>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>